--- a/environment_risk/environments.xlsx
+++ b/environment_risk/environments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\DashTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\Covid-Building-Infections\environment_risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53990D2-D5C4-4994-B5AD-7DAA25B6E616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B884E7-3177-4266-AF91-FB88A358EF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2535" windowWidth="26745" windowHeight="14760" xr2:uid="{36D1D4EA-53DB-4A6E-8D95-319E472E8B29}"/>
+    <workbookView xWindow="-27390" yWindow="1065" windowWidth="26745" windowHeight="14760" xr2:uid="{36D1D4EA-53DB-4A6E-8D95-319E472E8B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>environment</t>
   </si>
@@ -44,18 +44,6 @@
     <t>attack rate</t>
   </si>
   <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Post Office</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -71,7 +59,34 @@
     <t>Outdoor</t>
   </si>
   <si>
-    <t>Indoor</t>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Post Office (N)</t>
+  </si>
+  <si>
+    <t>Bank (M)</t>
+  </si>
+  <si>
+    <t>Pharmacy (M)</t>
+  </si>
+  <si>
+    <t>Supermarket (M)</t>
+  </si>
+  <si>
+    <t>Home 2 People</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Home 6 People</t>
   </si>
 </sst>
 </file>
@@ -437,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD493C1-4A63-437B-9511-907D8856797F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -466,114 +481,240 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="D2" s="1">
-        <v>0.7</v>
+        <v>3.0500000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05</v>
+        <v>3.3E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1">
-        <v>3.12222222222222E-2</v>
+        <v>0.27197500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1">
-        <v>3.46666666666667E-2</v>
+        <v>1.20375E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.27</v>
+        <v>3.0318749999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03</v>
+        <v>5.1166666666666669E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
-        <v>2.28888888888889E-2</v>
+        <v>5.1333333333333326E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>360</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.304444444444444E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.402777777777778E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.9111111111111109E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D16" s="1">
+        <v>0.33416666666666672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.18055555555556E-2</v>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.9166666666666669E-2</v>
       </c>
     </row>
   </sheetData>
